--- a/DESIGN/rules/StudioIssues.TestCompareXlsxFiles/Main.xlsx
+++ b/DESIGN/rules/StudioIssues.TestCompareXlsxFiles/Main.xlsx
@@ -963,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="125"/>
   </sheetViews>
@@ -1061,8 +1061,8 @@
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20">
-        <v>12</v>
+      <c r="C9" s="20" t="n">
+        <v>1000.0</v>
       </c>
       <c r="D9" s="21">
         <v>17</v>
